--- a/materiaux_et_isolants.xlsx
+++ b/materiaux_et_isolants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Épaisseur Matériaux (mm)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Isolants</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Épaisseur Isolants (mm)</t>
         </is>
       </c>
     </row>
@@ -451,10 +461,28 @@
           <t>Bois</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Laine minérale</t>
         </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Laine minérale</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
